--- a/ig/ch-lab-report/StructureDefinition-ch-lab-diagnosticreport.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-diagnosticreport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T14:56:25+01:00</t>
+    <t>2023-12-28T12:16:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1732,17 +1732,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.34375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.48828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.56640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="30.0" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="59.62890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="199.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="204.0546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1751,26 +1751,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="63.58984375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="47.0703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.33984375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="170.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="117.37109375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-diagnosticreport.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-diagnosticreport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>CH LAB DiagnosticReport: Laboratory Report</t>
+    <t>CH LAB-Report DiagnosticReport: Laboratory Report</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T09:40:37+00:00</t>
+    <t>2024-12-18T08:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(WORK))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -705,7 +705,7 @@
     <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-diagnosticreport.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-diagnosticreport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T08:59:06+00:00</t>
+    <t>2025-05-22T14:17:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch)</t>
   </si>
   <si>
-    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(work))</t>
+    <t>Marcel Hanselmann (laborprojektgruppe@gmail.com(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1513,17 +1513,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.34375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="30.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="34.6171875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="53.34375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="155.2890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="133.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1532,26 +1532,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="55.578125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="41.5390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.6484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="171.66796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="121.93359375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="147.17578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="104.53515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-lab-report/StructureDefinition-ch-lab-diagnosticreport.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-diagnosticreport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -374,7 +374,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -702,7 +702,7 @@
     <t>Codes for diagnostic service sections.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -827,7 +827,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -930,7 +930,7 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
+    <t xml:space="preserve">Reference(ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -1117,7 +1117,7 @@
     <t>DiagnosticReport.media.link</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Media)
+    <t xml:space="preserve">Reference(Media|4.0.1)
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
     <t>Diagnosis codes provided as adjuncts to the report.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
+    <t>http://hl7.org/fhir/ValueSet/clinical-findings|4.0.1</t>
   </si>
   <si>
     <t>inboundRelationship[typeCode=SPRT].source[classCode=OBS, moodCode=EVN, code=LOINC:54531-9].value (type=CD)</t>
@@ -1538,7 +1538,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="41.5390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="47.6484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="48.3515625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
